--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2274.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2274.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.150817389095268</v>
+        <v>1.211588740348816</v>
       </c>
       <c r="B1">
-        <v>2.618130299771452</v>
+        <v>2.579480409622192</v>
       </c>
       <c r="C1">
-        <v>4.981684938744378</v>
+        <v>4.356475353240967</v>
       </c>
       <c r="D1">
-        <v>2.90785844629617</v>
+        <v>2.138078451156616</v>
       </c>
       <c r="E1">
-        <v>1.223061311837641</v>
+        <v>1.168679118156433</v>
       </c>
     </row>
   </sheetData>
